--- a/개발,디자인 일정.xlsx
+++ b/개발,디자인 일정.xlsx
@@ -1097,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,6 +1284,141 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1302,72 +1437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,65 +1458,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,6 +1494,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1457,57 +1523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1782,7 +1797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1805,12 +1820,12 @@
   <sheetData>
     <row r="2" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:26">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
@@ -1876,10 +1891,10 @@
       </c>
     </row>
     <row r="4" spans="2:26" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="23">
         <v>44263</v>
       </c>
@@ -1945,29 +1960,29 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="110" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="109"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="109"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="110" t="s">
+      <c r="M5" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="109"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="38" t="s">
@@ -1984,14 +1999,14 @@
       <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="2:26" ht="49.5">
-      <c r="B6" s="88"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8" t="s">
@@ -2027,9 +2042,9 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B7" s="88"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2062,9 +2077,9 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2095,9 +2110,9 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2128,9 +2143,9 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="85"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2157,9 +2172,9 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2187,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="98" t="s">
+      <c r="O11" s="93" t="s">
         <v>72</v>
       </c>
       <c r="P11" s="5"/>
@@ -2188,9 +2203,9 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2218,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="99"/>
+      <c r="O12" s="94"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -2217,9 +2232,9 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2247,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="99"/>
+      <c r="O13" s="94"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2246,9 +2261,9 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2261,7 +2276,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="99"/>
+      <c r="O14" s="94"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2275,9 +2290,9 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="2:26" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B15" s="89"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
@@ -2290,7 +2305,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="100"/>
+      <c r="O15" s="95"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -2304,22 +2319,22 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="105" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="105" t="s">
+      <c r="G16" s="100"/>
+      <c r="H16" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="106"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -2336,30 +2351,30 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="36"/>
-      <c r="X16" s="69" t="s">
+      <c r="X16" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="104"/>
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="92"/>
     </row>
     <row r="17" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="111" t="s">
+      <c r="J17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="113"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2372,14 +2387,14 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="2:26" ht="66">
-      <c r="B18" s="75"/>
-      <c r="C18" s="114" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="11" t="s">
         <v>30</v>
       </c>
@@ -2419,9 +2434,9 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84" t="s">
+      <c r="B19" s="73"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2458,9 +2473,9 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B20" s="75"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2495,9 +2510,9 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2532,9 +2547,9 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B22" s="75"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2565,9 +2580,9 @@
       <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B23" s="75"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2597,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="98" t="s">
+      <c r="O23" s="93" t="s">
         <v>72</v>
       </c>
       <c r="P23" s="5"/>
@@ -2600,9 +2615,9 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="85"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2617,7 +2632,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="99"/>
+      <c r="O24" s="94"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="13" t="s">
         <v>64</v>
@@ -2633,9 +2648,9 @@
       <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2665,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="99"/>
+      <c r="O25" s="94"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="13" t="s">
         <v>65</v>
@@ -2666,9 +2681,9 @@
       <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="85"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2698,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="99"/>
+      <c r="O26" s="94"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="13" t="s">
         <v>66</v>
@@ -2699,9 +2714,9 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B27" s="76"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="86"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2731,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="100"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="20" t="s">
         <v>59</v>
@@ -2733,12 +2748,12 @@
     </row>
     <row r="29" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="30" spans="2:26">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="28" t="s">
         <v>35</v>
       </c>
@@ -2804,10 +2819,10 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="25">
         <v>44284</v>
       </c>
@@ -2873,27 +2888,27 @@
       </c>
     </row>
     <row r="32" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108" t="s">
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="101" t="s">
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="104"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="30"/>
@@ -2908,14 +2923,14 @@
       <c r="Z32" s="27"/>
     </row>
     <row r="33" spans="2:26" s="4" customFormat="1" ht="66">
-      <c r="B33" s="88"/>
-      <c r="C33" s="83" t="s">
+      <c r="B33" s="75"/>
+      <c r="C33" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="83"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8" t="s">
@@ -2947,9 +2962,9 @@
       <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B34" s="88"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84" t="s">
+      <c r="B34" s="75"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2958,7 +2973,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="95" t="s">
+      <c r="I34" s="96" t="s">
         <v>77</v>
       </c>
       <c r="J34" s="5"/>
@@ -2982,16 +2997,16 @@
       <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B35" s="88"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="85"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="96"/>
+      <c r="I35" s="97"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3011,16 +3026,16 @@
       <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B36" s="88"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="85"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="97"/>
+      <c r="I36" s="98"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3040,9 +3055,9 @@
       <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B37" s="88"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="85"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
@@ -3069,16 +3084,16 @@
       <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B38" s="88"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="85"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="98" t="s">
+      <c r="I38" s="93" t="s">
         <v>22</v>
       </c>
       <c r="J38" s="5"/>
@@ -3100,16 +3115,16 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B39" s="88"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="85"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="99"/>
+      <c r="I39" s="94"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -3129,16 +3144,16 @@
       <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B40" s="88"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="85"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="99"/>
+      <c r="I40" s="94"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -3158,16 +3173,16 @@
       <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B41" s="88"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="85"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="99"/>
+      <c r="I41" s="94"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -3187,16 +3202,16 @@
       <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B42" s="89"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="86"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="100"/>
+      <c r="I42" s="95"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -3216,47 +3231,47 @@
       <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="69" t="s">
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="69" t="s">
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="69" t="s">
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="106"/>
+      <c r="P43" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="71"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="106"/>
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B44" s="75"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="82"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3280,14 +3295,14 @@
       <c r="Z44" s="17"/>
     </row>
     <row r="45" spans="2:26" s="4" customFormat="1" ht="66">
-      <c r="B45" s="75"/>
-      <c r="C45" s="83" t="s">
+      <c r="B45" s="73"/>
+      <c r="C45" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="83"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
@@ -3325,9 +3340,9 @@
       <c r="Z45" s="17"/>
     </row>
     <row r="46" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B46" s="75"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84" t="s">
+      <c r="B46" s="73"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -3336,7 +3351,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="95" t="s">
+      <c r="I46" s="96" t="s">
         <v>77</v>
       </c>
       <c r="J46" s="12"/>
@@ -3360,16 +3375,16 @@
       <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B47" s="75"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="85"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="78"/>
       <c r="E47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="96"/>
+      <c r="I47" s="97"/>
       <c r="J47" s="12"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3389,16 +3404,16 @@
       <c r="Z47" s="17"/>
     </row>
     <row r="48" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B48" s="75"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="85"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="97"/>
+      <c r="I48" s="98"/>
       <c r="J48" s="12"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3418,9 +3433,9 @@
       <c r="Z48" s="17"/>
     </row>
     <row r="49" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B49" s="75"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="85"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
@@ -3447,16 +3462,16 @@
       <c r="Z49" s="17"/>
     </row>
     <row r="50" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B50" s="75"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="85"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="98" t="s">
+      <c r="I50" s="93" t="s">
         <v>22</v>
       </c>
       <c r="J50" s="12"/>
@@ -3478,16 +3493,16 @@
       <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B51" s="75"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="85"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="99"/>
+      <c r="I51" s="94"/>
       <c r="J51" s="12"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3507,16 +3522,16 @@
       <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B52" s="75"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="85"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="99"/>
+      <c r="I52" s="94"/>
       <c r="J52" s="12"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3536,16 +3551,16 @@
       <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B53" s="75"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="85"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="99"/>
+      <c r="I53" s="94"/>
       <c r="J53" s="12"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -3565,16 +3580,16 @@
       <c r="Z53" s="17"/>
     </row>
     <row r="54" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B54" s="76"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="86"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="100"/>
+      <c r="I54" s="95"/>
       <c r="J54" s="21"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -3595,12 +3610,12 @@
     </row>
     <row r="56" spans="2:31" ht="17.25" thickBot="1"/>
     <row r="57" spans="2:31" s="4" customFormat="1">
-      <c r="B57" s="65" t="s">
+      <c r="B57" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
       <c r="F57" s="28" t="s">
         <v>35</v>
       </c>
@@ -3681,10 +3696,10 @@
       </c>
     </row>
     <row r="58" spans="2:31" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
       <c r="F58" s="25">
         <v>44305</v>
       </c>
@@ -3765,23 +3780,23 @@
       </c>
     </row>
     <row r="59" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B59" s="87" t="s">
+      <c r="B59" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="90"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="93"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="94"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="117"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="119"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="22"/>
@@ -3798,19 +3813,19 @@
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="16"/>
-      <c r="AE59" s="62" t="s">
+      <c r="AE59" s="107" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:31" s="4" customFormat="1" ht="49.5">
-      <c r="B60" s="88"/>
-      <c r="C60" s="83" t="s">
+      <c r="B60" s="75"/>
+      <c r="C60" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="83"/>
+      <c r="E60" s="86"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3838,12 +3853,12 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="17"/>
-      <c r="AE60" s="63"/>
+      <c r="AE60" s="108"/>
     </row>
     <row r="61" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B61" s="88"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="84" t="s">
+      <c r="B61" s="75"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -3874,12 +3889,12 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="17"/>
-      <c r="AE61" s="63"/>
+      <c r="AE61" s="108"/>
     </row>
     <row r="62" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B62" s="88"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="85"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="5" t="s">
         <v>5</v>
       </c>
@@ -3908,12 +3923,12 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="17"/>
-      <c r="AE62" s="63"/>
+      <c r="AE62" s="108"/>
     </row>
     <row r="63" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B63" s="88"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="85"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="5" t="s">
         <v>6</v>
       </c>
@@ -3942,12 +3957,12 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="17"/>
-      <c r="AE63" s="63"/>
+      <c r="AE63" s="108"/>
     </row>
     <row r="64" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B64" s="88"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="85"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3976,12 +3991,12 @@
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="63"/>
+      <c r="AE64" s="108"/>
     </row>
     <row r="65" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B65" s="88"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="85"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="78"/>
       <c r="E65" s="5" t="s">
         <v>7</v>
       </c>
@@ -4010,12 +4025,12 @@
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="63"/>
+      <c r="AE65" s="108"/>
     </row>
     <row r="66" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B66" s="88"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="85"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="78"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
@@ -4044,12 +4059,12 @@
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="63"/>
+      <c r="AE66" s="108"/>
     </row>
     <row r="67" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B67" s="88"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="85"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="78"/>
       <c r="E67" s="5" t="s">
         <v>9</v>
       </c>
@@ -4078,12 +4093,12 @@
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="17"/>
-      <c r="AE67" s="63"/>
+      <c r="AE67" s="108"/>
     </row>
     <row r="68" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B68" s="88"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="85"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="78"/>
       <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
@@ -4112,12 +4127,12 @@
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="17"/>
-      <c r="AE68" s="63"/>
+      <c r="AE68" s="108"/>
     </row>
     <row r="69" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B69" s="89"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="86"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="79"/>
       <c r="E69" s="18" t="s">
         <v>11</v>
       </c>
@@ -4146,29 +4161,29 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
       <c r="AD69" s="19"/>
-      <c r="AE69" s="63"/>
+      <c r="AE69" s="108"/>
     </row>
     <row r="70" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B70" s="74" t="s">
+      <c r="B70" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="77" t="s">
+      <c r="C70" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="78"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="69" t="s">
+      <c r="D70" s="81"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="72"/>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="73"/>
+      <c r="G70" s="91"/>
+      <c r="H70" s="91"/>
+      <c r="I70" s="91"/>
+      <c r="J70" s="91"/>
+      <c r="K70" s="91"/>
+      <c r="L70" s="91"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
+      <c r="O70" s="113"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
@@ -4184,13 +4199,13 @@
       <c r="AB70" s="33"/>
       <c r="AC70" s="33"/>
       <c r="AD70" s="34"/>
-      <c r="AE70" s="63"/>
+      <c r="AE70" s="108"/>
     </row>
     <row r="71" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B71" s="75"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="82"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -4216,17 +4231,17 @@
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="63"/>
+      <c r="AE71" s="108"/>
     </row>
     <row r="72" spans="2:31" s="4" customFormat="1" ht="49.5">
-      <c r="B72" s="75"/>
-      <c r="C72" s="83" t="s">
+      <c r="B72" s="73"/>
+      <c r="C72" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="83"/>
+      <c r="E72" s="86"/>
       <c r="F72" s="11"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
@@ -4258,12 +4273,12 @@
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="17"/>
-      <c r="AE72" s="63"/>
+      <c r="AE72" s="108"/>
     </row>
     <row r="73" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B73" s="75"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84" t="s">
+      <c r="B73" s="73"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -4294,12 +4309,12 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="17"/>
-      <c r="AE73" s="63"/>
+      <c r="AE73" s="108"/>
     </row>
     <row r="74" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B74" s="75"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="85"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="5" t="s">
         <v>5</v>
       </c>
@@ -4328,12 +4343,12 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="17"/>
-      <c r="AE74" s="63"/>
+      <c r="AE74" s="108"/>
     </row>
     <row r="75" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B75" s="75"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="85"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="5" t="s">
         <v>6</v>
       </c>
@@ -4362,12 +4377,12 @@
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="17"/>
-      <c r="AE75" s="63"/>
+      <c r="AE75" s="108"/>
     </row>
     <row r="76" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B76" s="75"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="85"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="78"/>
       <c r="E76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4396,12 +4411,12 @@
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="17"/>
-      <c r="AE76" s="63"/>
+      <c r="AE76" s="108"/>
     </row>
     <row r="77" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B77" s="75"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="85"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
@@ -4430,12 +4445,12 @@
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="17"/>
-      <c r="AE77" s="63"/>
+      <c r="AE77" s="108"/>
     </row>
     <row r="78" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B78" s="75"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="85"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="78"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
@@ -4464,12 +4479,12 @@
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="17"/>
-      <c r="AE78" s="63"/>
+      <c r="AE78" s="108"/>
     </row>
     <row r="79" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B79" s="75"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="85"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="78"/>
       <c r="E79" s="5" t="s">
         <v>9</v>
       </c>
@@ -4498,12 +4513,12 @@
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="17"/>
-      <c r="AE79" s="63"/>
+      <c r="AE79" s="108"/>
     </row>
     <row r="80" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B80" s="75"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="85"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="78"/>
       <c r="E80" s="5" t="s">
         <v>10</v>
       </c>
@@ -4532,12 +4547,12 @@
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="17"/>
-      <c r="AE80" s="63"/>
+      <c r="AE80" s="108"/>
     </row>
     <row r="81" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B81" s="76"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="86"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="79"/>
       <c r="E81" s="18" t="s">
         <v>11</v>
       </c>
@@ -4566,49 +4581,10 @@
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
       <c r="AD81" s="19"/>
-      <c r="AE81" s="64"/>
+      <c r="AE81" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O11:O15"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:O43"/>
     <mergeCell ref="AE59:AE81"/>
     <mergeCell ref="B30:E31"/>
     <mergeCell ref="B3:E4"/>
@@ -4625,6 +4601,45 @@
     <mergeCell ref="F59:J59"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="C60:C69"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4636,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4651,12 +4666,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:33">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
@@ -4743,10 +4758,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="23">
         <v>44256</v>
       </c>
@@ -4833,45 +4848,45 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="131" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="132"/>
+      <c r="G5" s="123"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
       <c r="J5" s="52"/>
       <c r="K5" s="50"/>
       <c r="L5" s="50"/>
       <c r="M5" s="50"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="110" t="s">
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="110" t="s">
+      <c r="Q5" s="121"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="U5" s="109"/>
+      <c r="U5" s="68"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="69" t="s">
+      <c r="X5" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="71"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="106"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
@@ -4879,14 +4894,14 @@
       <c r="AG5" s="27"/>
     </row>
     <row r="6" spans="2:33" ht="51" thickTop="1" thickBot="1">
-      <c r="B6" s="88"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="75"/>
+      <c r="C6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="83"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52" t="s">
         <v>94</v>
@@ -4903,17 +4918,17 @@
       <c r="M6" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="135"/>
-      <c r="O6" s="8" t="s">
+      <c r="N6" s="62"/>
+      <c r="O6" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="5"/>
       <c r="V6" s="8" t="s">
         <v>69</v>
@@ -4937,9 +4952,9 @@
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="88"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4959,17 +4974,17 @@
       <c r="M7" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="62"/>
+      <c r="O7" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="5"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
@@ -4985,9 +5000,9 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5005,17 +5020,17 @@
       <c r="M8" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="135"/>
-      <c r="O8" s="9" t="s">
+      <c r="N8" s="62"/>
+      <c r="O8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
       <c r="U8" s="5"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
@@ -5031,9 +5046,9 @@
       <c r="AG8" s="17"/>
     </row>
     <row r="9" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
@@ -5051,17 +5066,17 @@
       <c r="M9" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N9" s="135"/>
-      <c r="O9" s="9" t="s">
+      <c r="N9" s="62"/>
+      <c r="O9" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
       <c r="U9" s="5"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -5077,9 +5092,9 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="85"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
@@ -5093,13 +5108,13 @@
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -5115,9 +5130,9 @@
       <c r="AG10" s="17"/>
     </row>
     <row r="11" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="85"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -5129,15 +5144,15 @@
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="98" t="s">
+      <c r="V11" s="93" t="s">
         <v>72</v>
       </c>
       <c r="W11" s="5"/>
@@ -5153,9 +5168,9 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5167,15 +5182,15 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="99"/>
+      <c r="V12" s="94"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -5189,9 +5204,9 @@
       <c r="AG12" s="17"/>
     </row>
     <row r="13" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
@@ -5203,15 +5218,15 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="94"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -5225,9 +5240,9 @@
       <c r="AG13" s="17"/>
     </row>
     <row r="14" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5239,15 +5254,15 @@
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="94"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -5261,9 +5276,9 @@
       <c r="AG14" s="17"/>
     </row>
     <row r="15" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="89"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
@@ -5275,15 +5290,15 @@
       <c r="K15" s="57"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
       <c r="U15" s="18"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -5297,62 +5312,62 @@
       <c r="AG15" s="19"/>
     </row>
     <row r="16" spans="2:33" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="131" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="134"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="58"/>
       <c r="M16" s="58"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="105" t="s">
+      <c r="N16" s="62"/>
+      <c r="O16" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="111" t="s">
+      <c r="P16" s="120"/>
+      <c r="Q16" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
-      <c r="V16" s="112"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="69" t="s">
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="69" t="s">
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91"/>
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="104"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
     </row>
     <row r="17" spans="2:33" ht="67.5" thickTop="1" thickBot="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="114" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="53"/>
       <c r="G17" s="52" t="s">
         <v>94</v>
@@ -5371,19 +5386,19 @@
       <c r="M17" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="N17" s="136"/>
-      <c r="O17" s="8" t="s">
+      <c r="N17" s="63"/>
+      <c r="O17" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
       <c r="U17" s="5"/>
       <c r="V17" s="8" t="s">
         <v>69</v>
@@ -5407,9 +5422,9 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="75"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -5431,19 +5446,19 @@
       <c r="M18" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="N18" s="135"/>
-      <c r="O18" s="9" t="s">
+      <c r="N18" s="62"/>
+      <c r="O18" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
       <c r="U18" s="5"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
@@ -5461,9 +5476,9 @@
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="85"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
@@ -5483,19 +5498,19 @@
       <c r="M19" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="135"/>
-      <c r="O19" s="9" t="s">
+      <c r="N19" s="62"/>
+      <c r="O19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
       <c r="U19" s="5"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
@@ -5513,9 +5528,9 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="75"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
@@ -5535,19 +5550,19 @@
       <c r="M20" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="135"/>
-      <c r="O20" s="9" t="s">
+      <c r="N20" s="62"/>
+      <c r="O20" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
       <c r="U20" s="5"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
@@ -5565,9 +5580,9 @@
       <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
@@ -5583,15 +5598,15 @@
       <c r="K21" s="52"/>
       <c r="L21" s="52"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="7" t="s">
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -5609,9 +5624,9 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="75"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
@@ -5625,17 +5640,17 @@
       <c r="K22" s="52"/>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="9" t="s">
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="98" t="s">
+      <c r="V22" s="93" t="s">
         <v>72</v>
       </c>
       <c r="W22" s="5"/>
@@ -5653,9 +5668,9 @@
       <c r="AG22" s="17"/>
     </row>
     <row r="23" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="75"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="85"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
@@ -5669,17 +5684,17 @@
       <c r="K23" s="52"/>
       <c r="L23" s="52"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="9" t="s">
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="99"/>
+      <c r="V23" s="94"/>
       <c r="W23" s="5"/>
       <c r="X23" s="13" t="s">
         <v>64</v>
@@ -5695,9 +5710,9 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="85"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
@@ -5711,17 +5726,17 @@
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="9" t="s">
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="99"/>
+      <c r="V24" s="94"/>
       <c r="W24" s="5"/>
       <c r="X24" s="13" t="s">
         <v>65</v>
@@ -5737,9 +5752,9 @@
       <c r="AG24" s="17"/>
     </row>
     <row r="25" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
@@ -5753,17 +5768,17 @@
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="9" t="s">
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="99"/>
+      <c r="V25" s="94"/>
       <c r="W25" s="5"/>
       <c r="X25" s="13" t="s">
         <v>66</v>
@@ -5779,9 +5794,9 @@
       <c r="AG25" s="17"/>
     </row>
     <row r="26" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="76"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="86"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
@@ -5795,17 +5810,17 @@
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
       <c r="M26" s="57"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="20" t="s">
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
       <c r="U26" s="18"/>
-      <c r="V26" s="100"/>
+      <c r="V26" s="95"/>
       <c r="W26" s="18"/>
       <c r="X26" s="20" t="s">
         <v>59</v>
@@ -5822,12 +5837,12 @@
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="29" spans="2:33">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="28" t="s">
         <v>35</v>
       </c>
@@ -5914,10 +5929,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="25">
         <v>44284</v>
       </c>
@@ -6004,27 +6019,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108" t="s">
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="108" t="s">
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="30"/>
@@ -6046,14 +6061,14 @@
       <c r="AG31" s="49"/>
     </row>
     <row r="32" spans="2:33" ht="66">
-      <c r="B32" s="129"/>
-      <c r="C32" s="83" t="s">
+      <c r="B32" s="128"/>
+      <c r="C32" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8" t="s">
@@ -6092,9 +6107,9 @@
       <c r="AG32" s="17"/>
     </row>
     <row r="33" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B33" s="129"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -6103,7 +6118,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="115" t="s">
+      <c r="I33" s="130" t="s">
         <v>77</v>
       </c>
       <c r="J33" s="5"/>
@@ -6112,7 +6127,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="115" t="s">
+      <c r="P33" s="130" t="s">
         <v>121</v>
       </c>
       <c r="Q33" s="5"/>
@@ -6134,23 +6149,23 @@
       <c r="AG33" s="17"/>
     </row>
     <row r="34" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B34" s="129"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="116"/>
+      <c r="I34" s="131"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="116"/>
+      <c r="P34" s="131"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -6170,23 +6185,23 @@
       <c r="AG34" s="17"/>
     </row>
     <row r="35" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B35" s="129"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="116"/>
+      <c r="I35" s="131"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="116"/>
+      <c r="P35" s="131"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -6206,9 +6221,9 @@
       <c r="AG35" s="17"/>
     </row>
     <row r="36" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B36" s="129"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="5" t="s">
         <v>20</v>
       </c>
@@ -6242,16 +6257,16 @@
       <c r="AG36" s="17"/>
     </row>
     <row r="37" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B37" s="129"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="121" t="s">
+      <c r="I37" s="132" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="5"/>
@@ -6280,16 +6295,16 @@
       <c r="AG37" s="17"/>
     </row>
     <row r="38" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B38" s="129"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="122"/>
+      <c r="I38" s="133"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -6316,16 +6331,16 @@
       <c r="AG38" s="17"/>
     </row>
     <row r="39" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B39" s="129"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="122"/>
+      <c r="I39" s="133"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -6352,16 +6367,16 @@
       <c r="AG39" s="17"/>
     </row>
     <row r="40" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B40" s="129"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="122"/>
+      <c r="I40" s="133"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6388,16 +6403,16 @@
       <c r="AG40" s="17"/>
     </row>
     <row r="41" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B41" s="130"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="41" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="124"/>
+      <c r="I41" s="135"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
@@ -6424,37 +6439,37 @@
       <c r="AG41" s="42"/>
     </row>
     <row r="42" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="120" t="s">
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120" t="s">
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="120" t="s">
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
@@ -6468,14 +6483,14 @@
       <c r="AG42" s="29"/>
     </row>
     <row r="43" spans="2:33" ht="66">
-      <c r="B43" s="126"/>
-      <c r="C43" s="83" t="s">
+      <c r="B43" s="137"/>
+      <c r="C43" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="83"/>
+      <c r="E43" s="86"/>
       <c r="F43" s="11"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
@@ -6522,9 +6537,9 @@
       <c r="AG43" s="17"/>
     </row>
     <row r="44" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B44" s="126"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83" t="s">
+      <c r="B44" s="137"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -6533,7 +6548,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="115" t="s">
+      <c r="I44" s="130" t="s">
         <v>77</v>
       </c>
       <c r="J44" s="12"/>
@@ -6562,16 +6577,16 @@
       <c r="AG44" s="17"/>
     </row>
     <row r="45" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B45" s="126"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="116"/>
+      <c r="I45" s="131"/>
       <c r="J45" s="12"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -6598,16 +6613,16 @@
       <c r="AG45" s="17"/>
     </row>
     <row r="46" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B46" s="126"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="116"/>
+      <c r="I46" s="131"/>
       <c r="J46" s="12"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -6634,9 +6649,9 @@
       <c r="AG46" s="17"/>
     </row>
     <row r="47" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
@@ -6670,16 +6685,16 @@
       <c r="AG47" s="17"/>
     </row>
     <row r="48" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B48" s="126"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="121" t="s">
+      <c r="I48" s="132" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="12"/>
@@ -6708,16 +6723,16 @@
       <c r="AG48" s="17"/>
     </row>
     <row r="49" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B49" s="126"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="122"/>
+      <c r="I49" s="133"/>
       <c r="J49" s="12"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -6744,16 +6759,16 @@
       <c r="AG49" s="17"/>
     </row>
     <row r="50" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B50" s="126"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="122"/>
+      <c r="I50" s="133"/>
       <c r="J50" s="12"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6780,16 +6795,16 @@
       <c r="AG50" s="17"/>
     </row>
     <row r="51" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B51" s="126"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="122"/>
+      <c r="I51" s="133"/>
       <c r="J51" s="12"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -6816,16 +6831,16 @@
       <c r="AG51" s="17"/>
     </row>
     <row r="52" spans="2:33" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B52" s="127"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
       <c r="E52" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="123"/>
+      <c r="I52" s="134"/>
       <c r="J52" s="21"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
@@ -6853,12 +6868,12 @@
     </row>
     <row r="54" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="55" spans="2:33">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
       <c r="F55" s="28" t="s">
         <v>35</v>
       </c>
@@ -6945,10 +6960,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B56" s="67"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="25">
         <v>44305</v>
       </c>
@@ -7035,23 +7050,23 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="93"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="94"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="117"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="119"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="22"/>
@@ -7068,21 +7083,21 @@
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="16"/>
-      <c r="AE57" s="117" t="s">
+      <c r="AE57" s="139" t="s">
         <v>88</v>
       </c>
       <c r="AF57" s="47"/>
       <c r="AG57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="66">
-      <c r="B58" s="88"/>
-      <c r="C58" s="83" t="s">
+      <c r="B58" s="75"/>
+      <c r="C58" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="83"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -7114,14 +7129,14 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="17"/>
-      <c r="AE58" s="118"/>
+      <c r="AE58" s="140"/>
       <c r="AF58" s="43"/>
       <c r="AG58" s="17"/>
     </row>
     <row r="59" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B59" s="88"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84" t="s">
+      <c r="B59" s="75"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -7152,14 +7167,14 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="17"/>
-      <c r="AE59" s="118"/>
+      <c r="AE59" s="140"/>
       <c r="AF59" s="43"/>
       <c r="AG59" s="17"/>
     </row>
     <row r="60" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B60" s="88"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="85"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="78"/>
       <c r="E60" s="5" t="s">
         <v>5</v>
       </c>
@@ -7188,14 +7203,14 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="17"/>
-      <c r="AE60" s="118"/>
+      <c r="AE60" s="140"/>
       <c r="AF60" s="43"/>
       <c r="AG60" s="17"/>
     </row>
     <row r="61" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B61" s="88"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="85"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="78"/>
       <c r="E61" s="5" t="s">
         <v>6</v>
       </c>
@@ -7224,14 +7239,14 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="17"/>
-      <c r="AE61" s="118"/>
+      <c r="AE61" s="140"/>
       <c r="AF61" s="43"/>
       <c r="AG61" s="17"/>
     </row>
     <row r="62" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B62" s="88"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="85"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="5" t="s">
         <v>20</v>
       </c>
@@ -7260,14 +7275,14 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="17"/>
-      <c r="AE62" s="118"/>
+      <c r="AE62" s="140"/>
       <c r="AF62" s="43"/>
       <c r="AG62" s="17"/>
     </row>
     <row r="63" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B63" s="88"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="85"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="78"/>
       <c r="E63" s="5" t="s">
         <v>7</v>
       </c>
@@ -7296,14 +7311,14 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="17"/>
-      <c r="AE63" s="118"/>
+      <c r="AE63" s="140"/>
       <c r="AF63" s="43"/>
       <c r="AG63" s="17"/>
     </row>
     <row r="64" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B64" s="88"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="85"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="78"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
@@ -7332,14 +7347,14 @@
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="118"/>
+      <c r="AE64" s="140"/>
       <c r="AF64" s="43"/>
       <c r="AG64" s="17"/>
     </row>
     <row r="65" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B65" s="88"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="85"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="78"/>
       <c r="E65" s="5" t="s">
         <v>9</v>
       </c>
@@ -7368,14 +7383,14 @@
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="118"/>
+      <c r="AE65" s="140"/>
       <c r="AF65" s="43"/>
       <c r="AG65" s="17"/>
     </row>
     <row r="66" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B66" s="88"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="85"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="78"/>
       <c r="E66" s="5" t="s">
         <v>10</v>
       </c>
@@ -7404,14 +7419,14 @@
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="118"/>
+      <c r="AE66" s="140"/>
       <c r="AF66" s="43"/>
       <c r="AG66" s="17"/>
     </row>
     <row r="67" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B67" s="89"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="86"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="79"/>
       <c r="E67" s="18" t="s">
         <v>11</v>
       </c>
@@ -7440,31 +7455,31 @@
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
       <c r="AD67" s="19"/>
-      <c r="AE67" s="118"/>
+      <c r="AE67" s="140"/>
       <c r="AF67" s="44"/>
       <c r="AG67" s="19"/>
     </row>
     <row r="68" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="69" t="s">
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="72"/>
-      <c r="L68" s="72"/>
-      <c r="M68" s="72"/>
-      <c r="N68" s="72"/>
-      <c r="O68" s="73"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="91"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91"/>
+      <c r="O68" s="113"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
@@ -7480,19 +7495,19 @@
       <c r="AB68" s="33"/>
       <c r="AC68" s="33"/>
       <c r="AD68" s="34"/>
-      <c r="AE68" s="118"/>
+      <c r="AE68" s="140"/>
       <c r="AF68" s="47"/>
       <c r="AG68" s="29"/>
     </row>
     <row r="69" spans="2:33" ht="66">
-      <c r="B69" s="75"/>
-      <c r="C69" s="83" t="s">
+      <c r="B69" s="73"/>
+      <c r="C69" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="D69" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="83"/>
+      <c r="E69" s="86"/>
       <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
@@ -7528,14 +7543,14 @@
         <v>114</v>
       </c>
       <c r="AD69" s="17"/>
-      <c r="AE69" s="118"/>
+      <c r="AE69" s="140"/>
       <c r="AF69" s="43"/>
       <c r="AG69" s="17"/>
     </row>
     <row r="70" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B70" s="75"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="84" t="s">
+      <c r="B70" s="73"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="77" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -7566,14 +7581,14 @@
       <c r="AB70" s="5"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="17"/>
-      <c r="AE70" s="118"/>
+      <c r="AE70" s="140"/>
       <c r="AF70" s="43"/>
       <c r="AG70" s="17"/>
     </row>
     <row r="71" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B71" s="75"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="85"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="78"/>
       <c r="E71" s="5" t="s">
         <v>5</v>
       </c>
@@ -7602,14 +7617,14 @@
       <c r="AB71" s="5"/>
       <c r="AC71" s="12"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="118"/>
+      <c r="AE71" s="140"/>
       <c r="AF71" s="43"/>
       <c r="AG71" s="17"/>
     </row>
     <row r="72" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B72" s="75"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="85"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="78"/>
       <c r="E72" s="5" t="s">
         <v>6</v>
       </c>
@@ -7638,14 +7653,14 @@
       <c r="AB72" s="5"/>
       <c r="AC72" s="12"/>
       <c r="AD72" s="17"/>
-      <c r="AE72" s="118"/>
+      <c r="AE72" s="140"/>
       <c r="AF72" s="43"/>
       <c r="AG72" s="17"/>
     </row>
     <row r="73" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B73" s="75"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="85"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="5" t="s">
         <v>20</v>
       </c>
@@ -7674,14 +7689,14 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="17"/>
-      <c r="AE73" s="118"/>
+      <c r="AE73" s="140"/>
       <c r="AF73" s="43"/>
       <c r="AG73" s="17"/>
     </row>
     <row r="74" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B74" s="75"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="85"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
@@ -7710,14 +7725,14 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="12"/>
       <c r="AD74" s="17"/>
-      <c r="AE74" s="118"/>
+      <c r="AE74" s="140"/>
       <c r="AF74" s="43"/>
       <c r="AG74" s="17"/>
     </row>
     <row r="75" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B75" s="75"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="85"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="78"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
@@ -7746,14 +7761,14 @@
       <c r="AB75" s="5"/>
       <c r="AC75" s="12"/>
       <c r="AD75" s="17"/>
-      <c r="AE75" s="118"/>
+      <c r="AE75" s="140"/>
       <c r="AF75" s="43"/>
       <c r="AG75" s="17"/>
     </row>
     <row r="76" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B76" s="75"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="85"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="78"/>
       <c r="E76" s="5" t="s">
         <v>9</v>
       </c>
@@ -7782,14 +7797,14 @@
       <c r="AB76" s="5"/>
       <c r="AC76" s="12"/>
       <c r="AD76" s="17"/>
-      <c r="AE76" s="118"/>
+      <c r="AE76" s="140"/>
       <c r="AF76" s="43"/>
       <c r="AG76" s="17"/>
     </row>
     <row r="77" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B77" s="75"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="85"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="5" t="s">
         <v>10</v>
       </c>
@@ -7818,14 +7833,14 @@
       <c r="AB77" s="5"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="17"/>
-      <c r="AE77" s="118"/>
+      <c r="AE77" s="140"/>
       <c r="AF77" s="43"/>
       <c r="AG77" s="17"/>
     </row>
     <row r="78" spans="2:33" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B78" s="76"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="86"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="79"/>
       <c r="E78" s="18" t="s">
         <v>11</v>
       </c>
@@ -7854,55 +7869,12 @@
       <c r="AB78" s="18"/>
       <c r="AC78" s="21"/>
       <c r="AD78" s="19"/>
-      <c r="AE78" s="119"/>
+      <c r="AE78" s="141"/>
       <c r="AF78" s="44"/>
       <c r="AG78" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:O68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="P33:P35"/>
     <mergeCell ref="AE57:AE78"/>
@@ -7919,6 +7891,49 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:D52"/>
     <mergeCell ref="I44:I46"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개발,디자인 일정.xlsx
+++ b/개발,디자인 일정.xlsx
@@ -1299,12 +1299,153 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,214 +1455,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,7 +1797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1820,12 +1820,12 @@
   <sheetData>
     <row r="2" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:26">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
@@ -1891,10 +1891,10 @@
       </c>
     </row>
     <row r="4" spans="2:26" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="23">
         <v>44263</v>
       </c>
@@ -1960,29 +1960,29 @@
       </c>
     </row>
     <row r="5" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="67" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="68"/>
+      <c r="G5" s="113"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="68"/>
+      <c r="N5" s="113"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="38" t="s">
@@ -1999,14 +1999,14 @@
       <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="2:26" ht="49.5">
-      <c r="B6" s="75"/>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="8" t="s">
@@ -2042,9 +2042,9 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B7" s="75"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="77" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2077,9 +2077,9 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="78"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2110,9 +2110,9 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2143,9 +2143,9 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B10" s="75"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
@@ -2172,9 +2172,9 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="93" t="s">
+      <c r="O11" s="103" t="s">
         <v>72</v>
       </c>
       <c r="P11" s="5"/>
@@ -2203,9 +2203,9 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="94"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -2232,9 +2232,9 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="94"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -2261,9 +2261,9 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="2:26" ht="21.75" customHeight="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="78"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="94"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -2290,9 +2290,9 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="2:26" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B15" s="76"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="95"/>
+      <c r="O15" s="105"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -2319,22 +2319,22 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="99" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="99" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -2351,30 +2351,30 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
       <c r="W16" s="36"/>
-      <c r="X16" s="90" t="s">
+      <c r="X16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="92"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="109"/>
     </row>
     <row r="17" spans="2:26" ht="55.5" customHeight="1">
-      <c r="B17" s="73"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="69" t="s">
+      <c r="J17" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="71"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="118"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -2387,14 +2387,14 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="2:26" ht="66">
-      <c r="B18" s="73"/>
-      <c r="C18" s="87" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="86"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="11" t="s">
         <v>30</v>
       </c>
@@ -2434,9 +2434,9 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B19" s="73"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="77" t="s">
+      <c r="B19" s="80"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2473,9 +2473,9 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2510,9 +2510,9 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B21" s="73"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2547,9 +2547,9 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B22" s="73"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2580,9 +2580,9 @@
       <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B23" s="73"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="78"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="93" t="s">
+      <c r="O23" s="103" t="s">
         <v>72</v>
       </c>
       <c r="P23" s="5"/>
@@ -2615,9 +2615,9 @@
       <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B24" s="73"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="94"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="13" t="s">
         <v>64</v>
@@ -2648,9 +2648,9 @@
       <c r="Z24" s="17"/>
     </row>
     <row r="25" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B25" s="73"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="78"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="94"/>
+      <c r="O25" s="104"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="13" t="s">
         <v>65</v>
@@ -2681,9 +2681,9 @@
       <c r="Z25" s="17"/>
     </row>
     <row r="26" spans="2:26" ht="22.5" customHeight="1">
-      <c r="B26" s="73"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="78"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="94"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="13" t="s">
         <v>66</v>
@@ -2714,9 +2714,9 @@
       <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="2:26" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="95"/>
+      <c r="O27" s="105"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="20" t="s">
         <v>59</v>
@@ -2748,12 +2748,12 @@
     </row>
     <row r="29" spans="2:26" ht="17.25" thickBot="1"/>
     <row r="30" spans="2:26">
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="28" t="s">
         <v>35</v>
       </c>
@@ -2819,10 +2819,10 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B31" s="112"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="25">
         <v>44284</v>
       </c>
@@ -2888,27 +2888,27 @@
       </c>
     </row>
     <row r="32" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="101" t="s">
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="102" t="s">
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="104"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="108"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="30"/>
@@ -2923,14 +2923,14 @@
       <c r="Z32" s="27"/>
     </row>
     <row r="33" spans="2:26" s="4" customFormat="1" ht="66">
-      <c r="B33" s="75"/>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="93"/>
+      <c r="C33" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="86"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="8" t="s">
@@ -2962,9 +2962,9 @@
       <c r="Z33" s="17"/>
     </row>
     <row r="34" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B34" s="75"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="77" t="s">
+      <c r="B34" s="93"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -2973,7 +2973,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="100" t="s">
         <v>77</v>
       </c>
       <c r="J34" s="5"/>
@@ -2997,16 +2997,16 @@
       <c r="Z34" s="17"/>
     </row>
     <row r="35" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B35" s="75"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="90"/>
       <c r="E35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="97"/>
+      <c r="I35" s="101"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3026,16 +3026,16 @@
       <c r="Z35" s="17"/>
     </row>
     <row r="36" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B36" s="75"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="90"/>
       <c r="E36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="98"/>
+      <c r="I36" s="102"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3055,9 +3055,9 @@
       <c r="Z36" s="17"/>
     </row>
     <row r="37" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B37" s="75"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
@@ -3084,16 +3084,16 @@
       <c r="Z37" s="17"/>
     </row>
     <row r="38" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B38" s="75"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="78"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="90"/>
       <c r="E38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="103" t="s">
         <v>22</v>
       </c>
       <c r="J38" s="5"/>
@@ -3115,16 +3115,16 @@
       <c r="Z38" s="17"/>
     </row>
     <row r="39" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B39" s="75"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="78"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="94"/>
+      <c r="I39" s="104"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -3144,16 +3144,16 @@
       <c r="Z39" s="17"/>
     </row>
     <row r="40" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B40" s="75"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="78"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="94"/>
+      <c r="I40" s="104"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -3173,16 +3173,16 @@
       <c r="Z40" s="17"/>
     </row>
     <row r="41" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B41" s="75"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="78"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="94"/>
+      <c r="I41" s="104"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -3202,16 +3202,16 @@
       <c r="Z41" s="17"/>
     </row>
     <row r="42" spans="2:26" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B42" s="76"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="91"/>
       <c r="E42" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
-      <c r="I42" s="95"/>
+      <c r="I42" s="105"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -3231,47 +3231,47 @@
       <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="90" t="s">
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="90" t="s">
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="90" t="s">
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="106"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="76"/>
       <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="2:26" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B44" s="73"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3295,14 +3295,14 @@
       <c r="Z44" s="17"/>
     </row>
     <row r="45" spans="2:26" s="4" customFormat="1" ht="66">
-      <c r="B45" s="73"/>
-      <c r="C45" s="86" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="86"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
@@ -3340,9 +3340,9 @@
       <c r="Z45" s="17"/>
     </row>
     <row r="46" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B46" s="73"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="77" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -3351,7 +3351,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="96" t="s">
+      <c r="I46" s="100" t="s">
         <v>77</v>
       </c>
       <c r="J46" s="12"/>
@@ -3375,16 +3375,16 @@
       <c r="Z46" s="17"/>
     </row>
     <row r="47" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B47" s="73"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="78"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="90"/>
       <c r="E47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="97"/>
+      <c r="I47" s="101"/>
       <c r="J47" s="12"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -3404,16 +3404,16 @@
       <c r="Z47" s="17"/>
     </row>
     <row r="48" spans="2:26" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B48" s="73"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="78"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="98"/>
+      <c r="I48" s="102"/>
       <c r="J48" s="12"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -3433,9 +3433,9 @@
       <c r="Z48" s="17"/>
     </row>
     <row r="49" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B49" s="73"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="78"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="90"/>
       <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
@@ -3462,16 +3462,16 @@
       <c r="Z49" s="17"/>
     </row>
     <row r="50" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B50" s="73"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="78"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="90"/>
       <c r="E50" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="93" t="s">
+      <c r="I50" s="103" t="s">
         <v>22</v>
       </c>
       <c r="J50" s="12"/>
@@ -3493,16 +3493,16 @@
       <c r="Z50" s="17"/>
     </row>
     <row r="51" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B51" s="73"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="78"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="94"/>
+      <c r="I51" s="104"/>
       <c r="J51" s="12"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3522,16 +3522,16 @@
       <c r="Z51" s="17"/>
     </row>
     <row r="52" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B52" s="73"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="78"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="94"/>
+      <c r="I52" s="104"/>
       <c r="J52" s="12"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3551,16 +3551,16 @@
       <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B53" s="73"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="78"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="90"/>
       <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="94"/>
+      <c r="I53" s="104"/>
       <c r="J53" s="12"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -3580,16 +3580,16 @@
       <c r="Z53" s="17"/>
     </row>
     <row r="54" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B54" s="74"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="91"/>
       <c r="E54" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="95"/>
+      <c r="I54" s="105"/>
       <c r="J54" s="21"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -3610,12 +3610,12 @@
     </row>
     <row r="56" spans="2:31" ht="17.25" thickBot="1"/>
     <row r="57" spans="2:31" s="4" customFormat="1">
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
       <c r="F57" s="28" t="s">
         <v>35</v>
       </c>
@@ -3696,10 +3696,10 @@
       </c>
     </row>
     <row r="58" spans="2:31" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B58" s="112"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
       <c r="F58" s="25">
         <v>44305</v>
       </c>
@@ -3780,23 +3780,23 @@
       </c>
     </row>
     <row r="59" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="111" t="s">
+      <c r="C59" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="117"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="119"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="99"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="22"/>
@@ -3813,19 +3813,19 @@
       <c r="AB59" s="15"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="16"/>
-      <c r="AE59" s="107" t="s">
+      <c r="AE59" s="67" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="2:31" s="4" customFormat="1" ht="49.5">
-      <c r="B60" s="75"/>
-      <c r="C60" s="86" t="s">
+      <c r="B60" s="93"/>
+      <c r="C60" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="86"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3853,12 +3853,12 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="17"/>
-      <c r="AE60" s="108"/>
+      <c r="AE60" s="68"/>
     </row>
     <row r="61" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B61" s="75"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="77" t="s">
+      <c r="B61" s="93"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
@@ -3889,12 +3889,12 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="17"/>
-      <c r="AE61" s="108"/>
+      <c r="AE61" s="68"/>
     </row>
     <row r="62" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B62" s="75"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="78"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="5" t="s">
         <v>5</v>
       </c>
@@ -3923,12 +3923,12 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="17"/>
-      <c r="AE62" s="108"/>
+      <c r="AE62" s="68"/>
     </row>
     <row r="63" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B63" s="75"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="78"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="5" t="s">
         <v>6</v>
       </c>
@@ -3957,12 +3957,12 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="17"/>
-      <c r="AE63" s="108"/>
+      <c r="AE63" s="68"/>
     </row>
     <row r="64" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B64" s="75"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="78"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="5" t="s">
         <v>20</v>
       </c>
@@ -3991,12 +3991,12 @@
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="108"/>
+      <c r="AE64" s="68"/>
     </row>
     <row r="65" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B65" s="75"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="78"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5" t="s">
         <v>7</v>
       </c>
@@ -4025,12 +4025,12 @@
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="108"/>
+      <c r="AE65" s="68"/>
     </row>
     <row r="66" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B66" s="75"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="78"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
@@ -4059,12 +4059,12 @@
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="108"/>
+      <c r="AE66" s="68"/>
     </row>
     <row r="67" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B67" s="75"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="78"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="90"/>
       <c r="E67" s="5" t="s">
         <v>9</v>
       </c>
@@ -4093,12 +4093,12 @@
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="17"/>
-      <c r="AE67" s="108"/>
+      <c r="AE67" s="68"/>
     </row>
     <row r="68" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="B68" s="75"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="78"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
@@ -4127,12 +4127,12 @@
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="17"/>
-      <c r="AE68" s="108"/>
+      <c r="AE68" s="68"/>
     </row>
     <row r="69" spans="2:31" s="4" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B69" s="76"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="79"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="18" t="s">
         <v>11</v>
       </c>
@@ -4161,29 +4161,29 @@
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
       <c r="AD69" s="19"/>
-      <c r="AE69" s="108"/>
+      <c r="AE69" s="68"/>
     </row>
     <row r="70" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="80" t="s">
+      <c r="C70" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="81"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="90" t="s">
+      <c r="D70" s="83"/>
+      <c r="E70" s="84"/>
+      <c r="F70" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="113"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="78"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
       <c r="R70" s="15"/>
@@ -4199,13 +4199,13 @@
       <c r="AB70" s="33"/>
       <c r="AC70" s="33"/>
       <c r="AD70" s="34"/>
-      <c r="AE70" s="108"/>
+      <c r="AE70" s="68"/>
     </row>
     <row r="71" spans="2:31" s="4" customFormat="1" ht="55.5" customHeight="1">
-      <c r="B71" s="73"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="85"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="87"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -4231,17 +4231,17 @@
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="108"/>
+      <c r="AE71" s="68"/>
     </row>
     <row r="72" spans="2:31" s="4" customFormat="1" ht="49.5">
-      <c r="B72" s="73"/>
-      <c r="C72" s="86" t="s">
+      <c r="B72" s="80"/>
+      <c r="C72" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="86" t="s">
+      <c r="D72" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="86"/>
+      <c r="E72" s="88"/>
       <c r="F72" s="11"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
@@ -4273,12 +4273,12 @@
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="17"/>
-      <c r="AE72" s="108"/>
+      <c r="AE72" s="68"/>
     </row>
     <row r="73" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B73" s="73"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="77" t="s">
+      <c r="B73" s="80"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -4309,12 +4309,12 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="17"/>
-      <c r="AE73" s="108"/>
+      <c r="AE73" s="68"/>
     </row>
     <row r="74" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B74" s="73"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="78"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="5" t="s">
         <v>5</v>
       </c>
@@ -4343,12 +4343,12 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="17"/>
-      <c r="AE74" s="108"/>
+      <c r="AE74" s="68"/>
     </row>
     <row r="75" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B75" s="73"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="78"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="5" t="s">
         <v>6</v>
       </c>
@@ -4377,12 +4377,12 @@
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="17"/>
-      <c r="AE75" s="108"/>
+      <c r="AE75" s="68"/>
     </row>
     <row r="76" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B76" s="73"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="78"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="90"/>
       <c r="E76" s="5" t="s">
         <v>20</v>
       </c>
@@ -4411,12 +4411,12 @@
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="17"/>
-      <c r="AE76" s="108"/>
+      <c r="AE76" s="68"/>
     </row>
     <row r="77" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B77" s="73"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="78"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="5" t="s">
         <v>7</v>
       </c>
@@ -4445,12 +4445,12 @@
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="17"/>
-      <c r="AE77" s="108"/>
+      <c r="AE77" s="68"/>
     </row>
     <row r="78" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B78" s="73"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="78"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="90"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
@@ -4479,12 +4479,12 @@
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="17"/>
-      <c r="AE78" s="108"/>
+      <c r="AE78" s="68"/>
     </row>
     <row r="79" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B79" s="73"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="78"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="90"/>
       <c r="E79" s="5" t="s">
         <v>9</v>
       </c>
@@ -4513,12 +4513,12 @@
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="17"/>
-      <c r="AE79" s="108"/>
+      <c r="AE79" s="68"/>
     </row>
     <row r="80" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B80" s="73"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="78"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="5" t="s">
         <v>10</v>
       </c>
@@ -4547,12 +4547,12 @@
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="17"/>
-      <c r="AE80" s="108"/>
+      <c r="AE80" s="68"/>
     </row>
     <row r="81" spans="2:31" s="4" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B81" s="74"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="79"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="18" t="s">
         <v>11</v>
       </c>
@@ -4581,10 +4581,49 @@
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
       <c r="AD81" s="19"/>
-      <c r="AE81" s="109"/>
+      <c r="AE81" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B32:B42"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="B43:B54"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:D54"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="O23:O27"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="J43:O43"/>
     <mergeCell ref="AE59:AE81"/>
     <mergeCell ref="B30:E31"/>
     <mergeCell ref="B3:E4"/>
@@ -4601,45 +4640,6 @@
     <mergeCell ref="F59:J59"/>
     <mergeCell ref="K59:N59"/>
     <mergeCell ref="C60:C69"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O11:O15"/>
-    <mergeCell ref="O23:O27"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B43:B54"/>
-    <mergeCell ref="C43:E44"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:D54"/>
-    <mergeCell ref="B32:B42"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:D42"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4652,7 +4652,7 @@
   <dimension ref="B2:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4666,12 +4666,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="3" spans="2:33">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="28" t="s">
         <v>35</v>
       </c>
@@ -4758,10 +4758,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="23">
         <v>44256</v>
       </c>
@@ -4848,18 +4848,18 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="122" t="s">
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="123"/>
+      <c r="G5" s="137"/>
       <c r="H5" s="50"/>
       <c r="I5" s="51"/>
       <c r="J5" s="52"/>
@@ -4868,25 +4868,25 @@
       <c r="M5" s="50"/>
       <c r="N5" s="62"/>
       <c r="O5" s="62"/>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="121"/>
+      <c r="Q5" s="141"/>
       <c r="R5" s="62"/>
       <c r="S5" s="62"/>
-      <c r="T5" s="67" t="s">
+      <c r="T5" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="U5" s="68"/>
+      <c r="U5" s="141"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="90" t="s">
+      <c r="X5" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="106"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="76"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
@@ -4894,14 +4894,14 @@
       <c r="AG5" s="27"/>
     </row>
     <row r="6" spans="2:33" ht="51" thickTop="1" thickBot="1">
-      <c r="B6" s="75"/>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52" t="s">
         <v>94</v>
@@ -4929,7 +4929,7 @@
       <c r="R6" s="62"/>
       <c r="S6" s="62"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="5"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="8" t="s">
         <v>69</v>
       </c>
@@ -4952,9 +4952,9 @@
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="75"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="77" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4985,7 +4985,7 @@
       <c r="R7" s="62"/>
       <c r="S7" s="62"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="5"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="5"/>
@@ -5000,9 +5000,9 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="78"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="R8" s="62"/>
       <c r="S8" s="62"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="5"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="5"/>
@@ -5046,9 +5046,9 @@
       <c r="AG8" s="17"/>
     </row>
     <row r="9" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="R9" s="62"/>
       <c r="S9" s="62"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="5"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="5"/>
@@ -5092,9 +5092,9 @@
       <c r="AG9" s="17"/>
     </row>
     <row r="10" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="75"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="R10" s="62"/>
       <c r="S10" s="62"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="5"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -5130,9 +5130,9 @@
       <c r="AG10" s="17"/>
     </row>
     <row r="11" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -5151,8 +5151,8 @@
       <c r="R11" s="62"/>
       <c r="S11" s="62"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="93" t="s">
+      <c r="U11" s="62"/>
+      <c r="V11" s="103" t="s">
         <v>72</v>
       </c>
       <c r="W11" s="5"/>
@@ -5168,9 +5168,9 @@
       <c r="AG11" s="17"/>
     </row>
     <row r="12" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5189,8 +5189,8 @@
       <c r="R12" s="62"/>
       <c r="S12" s="62"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="94"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="104"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -5204,9 +5204,9 @@
       <c r="AG12" s="17"/>
     </row>
     <row r="13" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
@@ -5225,8 +5225,8 @@
       <c r="R13" s="62"/>
       <c r="S13" s="62"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="94"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="104"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -5240,9 +5240,9 @@
       <c r="AG13" s="17"/>
     </row>
     <row r="14" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="78"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5261,8 +5261,8 @@
       <c r="R14" s="62"/>
       <c r="S14" s="62"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="94"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="104"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -5276,9 +5276,9 @@
       <c r="AG14" s="17"/>
     </row>
     <row r="15" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="76"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="79"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="18" t="s">
         <v>11</v>
       </c>
@@ -5297,8 +5297,8 @@
       <c r="R15" s="62"/>
       <c r="S15" s="62"/>
       <c r="T15" s="62"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="95"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="18"/>
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
@@ -5312,62 +5312,62 @@
       <c r="AG15" s="19"/>
     </row>
     <row r="16" spans="2:33" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="122" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="58"/>
       <c r="M16" s="58"/>
       <c r="N16" s="62"/>
-      <c r="O16" s="120" t="s">
+      <c r="O16" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="69" t="s">
+      <c r="P16" s="140"/>
+      <c r="Q16" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="90" t="s">
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="90" t="s">
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="109"/>
     </row>
     <row r="17" spans="2:33" ht="67.5" thickTop="1" thickBot="1">
-      <c r="B17" s="73"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="86"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="53"/>
       <c r="G17" s="52" t="s">
         <v>94</v>
@@ -5399,7 +5399,7 @@
       <c r="R17" s="62"/>
       <c r="S17" s="62"/>
       <c r="T17" s="62"/>
-      <c r="U17" s="5"/>
+      <c r="U17" s="62"/>
       <c r="V17" s="8" t="s">
         <v>69</v>
       </c>
@@ -5422,9 +5422,9 @@
       <c r="AG17" s="17"/>
     </row>
     <row r="18" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="73"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="77" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -5459,7 +5459,7 @@
       <c r="R18" s="62"/>
       <c r="S18" s="62"/>
       <c r="T18" s="62"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="62"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="13" t="s">
@@ -5476,9 +5476,9 @@
       <c r="AG18" s="17"/>
     </row>
     <row r="19" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="73"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="R19" s="62"/>
       <c r="S19" s="62"/>
       <c r="T19" s="62"/>
-      <c r="U19" s="5"/>
+      <c r="U19" s="62"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="13" t="s">
@@ -5528,9 +5528,9 @@
       <c r="AG19" s="17"/>
     </row>
     <row r="20" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="73"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
@@ -5563,7 +5563,7 @@
       <c r="R20" s="62"/>
       <c r="S20" s="62"/>
       <c r="T20" s="62"/>
-      <c r="U20" s="5"/>
+      <c r="U20" s="62"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="13" t="s">
@@ -5580,9 +5580,9 @@
       <c r="AG20" s="17"/>
     </row>
     <row r="21" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="73"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="R21" s="62"/>
       <c r="S21" s="62"/>
       <c r="T21" s="62"/>
-      <c r="U21" s="5"/>
+      <c r="U21" s="62"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="7" t="s">
@@ -5624,9 +5624,9 @@
       <c r="AG21" s="17"/>
     </row>
     <row r="22" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="73"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="78"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
@@ -5649,8 +5649,8 @@
       <c r="R22" s="62"/>
       <c r="S22" s="62"/>
       <c r="T22" s="62"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="93" t="s">
+      <c r="U22" s="62"/>
+      <c r="V22" s="103" t="s">
         <v>72</v>
       </c>
       <c r="W22" s="5"/>
@@ -5668,9 +5668,9 @@
       <c r="AG22" s="17"/>
     </row>
     <row r="23" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="73"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="78"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
@@ -5693,8 +5693,8 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="62"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="94"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="104"/>
       <c r="W23" s="5"/>
       <c r="X23" s="13" t="s">
         <v>64</v>
@@ -5710,9 +5710,9 @@
       <c r="AG23" s="17"/>
     </row>
     <row r="24" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="73"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
@@ -5735,8 +5735,8 @@
       <c r="R24" s="62"/>
       <c r="S24" s="62"/>
       <c r="T24" s="62"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="94"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="104"/>
       <c r="W24" s="5"/>
       <c r="X24" s="13" t="s">
         <v>65</v>
@@ -5752,9 +5752,9 @@
       <c r="AG24" s="17"/>
     </row>
     <row r="25" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="73"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="78"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="5" t="s">
         <v>10</v>
       </c>
@@ -5777,8 +5777,8 @@
       <c r="R25" s="62"/>
       <c r="S25" s="62"/>
       <c r="T25" s="62"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="94"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="104"/>
       <c r="W25" s="5"/>
       <c r="X25" s="13" t="s">
         <v>66</v>
@@ -5794,9 +5794,9 @@
       <c r="AG25" s="17"/>
     </row>
     <row r="26" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="79"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
@@ -5819,8 +5819,8 @@
       <c r="R26" s="62"/>
       <c r="S26" s="62"/>
       <c r="T26" s="62"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="95"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="105"/>
       <c r="W26" s="18"/>
       <c r="X26" s="20" t="s">
         <v>59</v>
@@ -5837,12 +5837,12 @@
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="29" spans="2:33">
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="28" t="s">
         <v>35</v>
       </c>
@@ -5929,10 +5929,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B30" s="112"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="25">
         <v>44284</v>
       </c>
@@ -6019,27 +6019,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="101" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="101" t="s">
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="30"/>
@@ -6061,14 +6061,14 @@
       <c r="AG31" s="49"/>
     </row>
     <row r="32" spans="2:33" ht="66">
-      <c r="B32" s="128"/>
-      <c r="C32" s="86" t="s">
+      <c r="B32" s="134"/>
+      <c r="C32" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="8" t="s">
@@ -6107,9 +6107,9 @@
       <c r="AG32" s="17"/>
     </row>
     <row r="33" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B33" s="128"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86" t="s">
+      <c r="B33" s="134"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -6118,7 +6118,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="130" t="s">
+      <c r="I33" s="120" t="s">
         <v>77</v>
       </c>
       <c r="J33" s="5"/>
@@ -6127,7 +6127,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="130" t="s">
+      <c r="P33" s="120" t="s">
         <v>121</v>
       </c>
       <c r="Q33" s="5"/>
@@ -6149,23 +6149,23 @@
       <c r="AG33" s="17"/>
     </row>
     <row r="34" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B34" s="128"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="131"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="131"/>
+      <c r="P34" s="121"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -6185,23 +6185,23 @@
       <c r="AG34" s="17"/>
     </row>
     <row r="35" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B35" s="128"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="131"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="131"/>
+      <c r="P35" s="121"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -6221,9 +6221,9 @@
       <c r="AG35" s="17"/>
     </row>
     <row r="36" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B36" s="128"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="5" t="s">
         <v>20</v>
       </c>
@@ -6257,16 +6257,16 @@
       <c r="AG36" s="17"/>
     </row>
     <row r="37" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B37" s="128"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="132" t="s">
+      <c r="I37" s="126" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="5"/>
@@ -6295,16 +6295,16 @@
       <c r="AG37" s="17"/>
     </row>
     <row r="38" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B38" s="128"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="133"/>
+      <c r="I38" s="127"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -6331,16 +6331,16 @@
       <c r="AG38" s="17"/>
     </row>
     <row r="39" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B39" s="128"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="133"/>
+      <c r="I39" s="127"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -6367,16 +6367,16 @@
       <c r="AG39" s="17"/>
     </row>
     <row r="40" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B40" s="128"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="133"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6403,16 +6403,16 @@
       <c r="AG40" s="17"/>
     </row>
     <row r="41" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B41" s="129"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="41" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="135"/>
+      <c r="I41" s="129"/>
       <c r="J41" s="41"/>
       <c r="K41" s="41"/>
       <c r="L41" s="41"/>
@@ -6439,37 +6439,37 @@
       <c r="AG41" s="42"/>
     </row>
     <row r="42" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="111" t="s">
+      <c r="C42" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="126" t="s">
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126" t="s">
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="126" t="s">
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
@@ -6483,14 +6483,14 @@
       <c r="AG42" s="29"/>
     </row>
     <row r="43" spans="2:33" ht="66">
-      <c r="B43" s="137"/>
-      <c r="C43" s="86" t="s">
+      <c r="B43" s="131"/>
+      <c r="C43" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="86"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="11"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
@@ -6537,9 +6537,9 @@
       <c r="AG43" s="17"/>
     </row>
     <row r="44" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B44" s="137"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86" t="s">
+      <c r="B44" s="131"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -6548,7 +6548,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="130" t="s">
+      <c r="I44" s="120" t="s">
         <v>77</v>
       </c>
       <c r="J44" s="12"/>
@@ -6577,16 +6577,16 @@
       <c r="AG44" s="17"/>
     </row>
     <row r="45" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B45" s="137"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
       <c r="E45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="131"/>
+      <c r="I45" s="121"/>
       <c r="J45" s="12"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -6613,16 +6613,16 @@
       <c r="AG45" s="17"/>
     </row>
     <row r="46" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B46" s="137"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
       <c r="E46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="131"/>
+      <c r="I46" s="121"/>
       <c r="J46" s="12"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -6649,9 +6649,9 @@
       <c r="AG46" s="17"/>
     </row>
     <row r="47" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B47" s="137"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
@@ -6685,16 +6685,16 @@
       <c r="AG47" s="17"/>
     </row>
     <row r="48" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B48" s="137"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
       <c r="E48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="132" t="s">
+      <c r="I48" s="126" t="s">
         <v>22</v>
       </c>
       <c r="J48" s="12"/>
@@ -6723,16 +6723,16 @@
       <c r="AG48" s="17"/>
     </row>
     <row r="49" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B49" s="137"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
       <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="133"/>
+      <c r="I49" s="127"/>
       <c r="J49" s="12"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -6759,16 +6759,16 @@
       <c r="AG49" s="17"/>
     </row>
     <row r="50" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B50" s="137"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
       <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="133"/>
+      <c r="I50" s="127"/>
       <c r="J50" s="12"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -6795,16 +6795,16 @@
       <c r="AG50" s="17"/>
     </row>
     <row r="51" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B51" s="137"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="133"/>
+      <c r="I51" s="127"/>
       <c r="J51" s="12"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -6831,16 +6831,16 @@
       <c r="AG51" s="17"/>
     </row>
     <row r="52" spans="2:33" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B52" s="138"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
       <c r="E52" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="134"/>
+      <c r="I52" s="128"/>
       <c r="J52" s="21"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
@@ -6868,12 +6868,12 @@
     </row>
     <row r="54" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="55" spans="2:33">
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="28" t="s">
         <v>35</v>
       </c>
@@ -6960,10 +6960,10 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B56" s="112"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="25">
         <v>44305</v>
       </c>
@@ -7050,23 +7050,23 @@
       </c>
     </row>
     <row r="57" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="111" t="s">
+      <c r="C57" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="117"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="119"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="99"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="22"/>
@@ -7083,21 +7083,21 @@
       <c r="AB57" s="15"/>
       <c r="AC57" s="15"/>
       <c r="AD57" s="16"/>
-      <c r="AE57" s="139" t="s">
+      <c r="AE57" s="122" t="s">
         <v>88</v>
       </c>
       <c r="AF57" s="47"/>
       <c r="AG57" s="29"/>
     </row>
     <row r="58" spans="2:33" ht="66">
-      <c r="B58" s="75"/>
-      <c r="C58" s="86" t="s">
+      <c r="B58" s="93"/>
+      <c r="C58" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="86" t="s">
+      <c r="D58" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="86"/>
+      <c r="E58" s="88"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -7129,14 +7129,14 @@
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="17"/>
-      <c r="AE58" s="140"/>
+      <c r="AE58" s="123"/>
       <c r="AF58" s="43"/>
       <c r="AG58" s="17"/>
     </row>
     <row r="59" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B59" s="75"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="77" t="s">
+      <c r="B59" s="93"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="89" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="5" t="s">
@@ -7167,14 +7167,14 @@
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="17"/>
-      <c r="AE59" s="140"/>
+      <c r="AE59" s="123"/>
       <c r="AF59" s="43"/>
       <c r="AG59" s="17"/>
     </row>
     <row r="60" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B60" s="75"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="78"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="90"/>
       <c r="E60" s="5" t="s">
         <v>5</v>
       </c>
@@ -7203,14 +7203,14 @@
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="17"/>
-      <c r="AE60" s="140"/>
+      <c r="AE60" s="123"/>
       <c r="AF60" s="43"/>
       <c r="AG60" s="17"/>
     </row>
     <row r="61" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B61" s="75"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="78"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="90"/>
       <c r="E61" s="5" t="s">
         <v>6</v>
       </c>
@@ -7239,14 +7239,14 @@
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="17"/>
-      <c r="AE61" s="140"/>
+      <c r="AE61" s="123"/>
       <c r="AF61" s="43"/>
       <c r="AG61" s="17"/>
     </row>
     <row r="62" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B62" s="75"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="78"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="90"/>
       <c r="E62" s="5" t="s">
         <v>20</v>
       </c>
@@ -7275,14 +7275,14 @@
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="17"/>
-      <c r="AE62" s="140"/>
+      <c r="AE62" s="123"/>
       <c r="AF62" s="43"/>
       <c r="AG62" s="17"/>
     </row>
     <row r="63" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B63" s="75"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="78"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="5" t="s">
         <v>7</v>
       </c>
@@ -7311,14 +7311,14 @@
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="17"/>
-      <c r="AE63" s="140"/>
+      <c r="AE63" s="123"/>
       <c r="AF63" s="43"/>
       <c r="AG63" s="17"/>
     </row>
     <row r="64" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B64" s="75"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="78"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="90"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
@@ -7347,14 +7347,14 @@
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="17"/>
-      <c r="AE64" s="140"/>
+      <c r="AE64" s="123"/>
       <c r="AF64" s="43"/>
       <c r="AG64" s="17"/>
     </row>
     <row r="65" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B65" s="75"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="78"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="90"/>
       <c r="E65" s="5" t="s">
         <v>9</v>
       </c>
@@ -7383,14 +7383,14 @@
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="17"/>
-      <c r="AE65" s="140"/>
+      <c r="AE65" s="123"/>
       <c r="AF65" s="43"/>
       <c r="AG65" s="17"/>
     </row>
     <row r="66" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B66" s="75"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="78"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="90"/>
       <c r="E66" s="5" t="s">
         <v>10</v>
       </c>
@@ -7419,14 +7419,14 @@
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="17"/>
-      <c r="AE66" s="140"/>
+      <c r="AE66" s="123"/>
       <c r="AF66" s="43"/>
       <c r="AG66" s="17"/>
     </row>
     <row r="67" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B67" s="76"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="79"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="18" t="s">
         <v>11</v>
       </c>
@@ -7455,31 +7455,31 @@
       <c r="AB67" s="18"/>
       <c r="AC67" s="18"/>
       <c r="AD67" s="19"/>
-      <c r="AE67" s="140"/>
+      <c r="AE67" s="123"/>
       <c r="AF67" s="44"/>
       <c r="AG67" s="19"/>
     </row>
     <row r="68" spans="2:33" ht="55.5" customHeight="1">
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="90" t="s">
+      <c r="D68" s="83"/>
+      <c r="E68" s="84"/>
+      <c r="F68" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="113"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="78"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
       <c r="R68" s="15"/>
@@ -7495,19 +7495,19 @@
       <c r="AB68" s="33"/>
       <c r="AC68" s="33"/>
       <c r="AD68" s="34"/>
-      <c r="AE68" s="140"/>
+      <c r="AE68" s="123"/>
       <c r="AF68" s="47"/>
       <c r="AG68" s="29"/>
     </row>
     <row r="69" spans="2:33" ht="66">
-      <c r="B69" s="73"/>
-      <c r="C69" s="86" t="s">
+      <c r="B69" s="80"/>
+      <c r="C69" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="86" t="s">
+      <c r="D69" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="86"/>
+      <c r="E69" s="88"/>
       <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
@@ -7543,14 +7543,14 @@
         <v>114</v>
       </c>
       <c r="AD69" s="17"/>
-      <c r="AE69" s="140"/>
+      <c r="AE69" s="123"/>
       <c r="AF69" s="43"/>
       <c r="AG69" s="17"/>
     </row>
     <row r="70" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B70" s="73"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="77" t="s">
+      <c r="B70" s="80"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -7581,14 +7581,14 @@
       <c r="AB70" s="5"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="17"/>
-      <c r="AE70" s="140"/>
+      <c r="AE70" s="123"/>
       <c r="AF70" s="43"/>
       <c r="AG70" s="17"/>
     </row>
     <row r="71" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B71" s="73"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="78"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="5" t="s">
         <v>5</v>
       </c>
@@ -7617,14 +7617,14 @@
       <c r="AB71" s="5"/>
       <c r="AC71" s="12"/>
       <c r="AD71" s="17"/>
-      <c r="AE71" s="140"/>
+      <c r="AE71" s="123"/>
       <c r="AF71" s="43"/>
       <c r="AG71" s="17"/>
     </row>
     <row r="72" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B72" s="73"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="78"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="90"/>
       <c r="E72" s="5" t="s">
         <v>6</v>
       </c>
@@ -7653,14 +7653,14 @@
       <c r="AB72" s="5"/>
       <c r="AC72" s="12"/>
       <c r="AD72" s="17"/>
-      <c r="AE72" s="140"/>
+      <c r="AE72" s="123"/>
       <c r="AF72" s="43"/>
       <c r="AG72" s="17"/>
     </row>
     <row r="73" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B73" s="73"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="78"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="90"/>
       <c r="E73" s="5" t="s">
         <v>20</v>
       </c>
@@ -7689,14 +7689,14 @@
       <c r="AB73" s="5"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="17"/>
-      <c r="AE73" s="140"/>
+      <c r="AE73" s="123"/>
       <c r="AF73" s="43"/>
       <c r="AG73" s="17"/>
     </row>
     <row r="74" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B74" s="73"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="78"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="90"/>
       <c r="E74" s="5" t="s">
         <v>7</v>
       </c>
@@ -7725,14 +7725,14 @@
       <c r="AB74" s="5"/>
       <c r="AC74" s="12"/>
       <c r="AD74" s="17"/>
-      <c r="AE74" s="140"/>
+      <c r="AE74" s="123"/>
       <c r="AF74" s="43"/>
       <c r="AG74" s="17"/>
     </row>
     <row r="75" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B75" s="73"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="78"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
@@ -7761,14 +7761,14 @@
       <c r="AB75" s="5"/>
       <c r="AC75" s="12"/>
       <c r="AD75" s="17"/>
-      <c r="AE75" s="140"/>
+      <c r="AE75" s="123"/>
       <c r="AF75" s="43"/>
       <c r="AG75" s="17"/>
     </row>
     <row r="76" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B76" s="73"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="78"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="90"/>
       <c r="E76" s="5" t="s">
         <v>9</v>
       </c>
@@ -7797,14 +7797,14 @@
       <c r="AB76" s="5"/>
       <c r="AC76" s="12"/>
       <c r="AD76" s="17"/>
-      <c r="AE76" s="140"/>
+      <c r="AE76" s="123"/>
       <c r="AF76" s="43"/>
       <c r="AG76" s="17"/>
     </row>
     <row r="77" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B77" s="73"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="78"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="90"/>
       <c r="E77" s="5" t="s">
         <v>10</v>
       </c>
@@ -7833,14 +7833,14 @@
       <c r="AB77" s="5"/>
       <c r="AC77" s="12"/>
       <c r="AD77" s="17"/>
-      <c r="AE77" s="140"/>
+      <c r="AE77" s="123"/>
       <c r="AF77" s="43"/>
       <c r="AG77" s="17"/>
     </row>
     <row r="78" spans="2:33" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B78" s="74"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="91"/>
       <c r="E78" s="18" t="s">
         <v>11</v>
       </c>
@@ -7869,12 +7869,55 @@
       <c r="AB78" s="18"/>
       <c r="AC78" s="21"/>
       <c r="AD78" s="19"/>
-      <c r="AE78" s="141"/>
+      <c r="AE78" s="124"/>
       <c r="AF78" s="44"/>
       <c r="AG78" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
     <mergeCell ref="X5:AB5"/>
     <mergeCell ref="P33:P35"/>
     <mergeCell ref="AE57:AE78"/>
@@ -7891,49 +7934,6 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:D52"/>
     <mergeCell ref="I44:I46"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:O68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
